--- a/Data/Subject_1/data.xlsx
+++ b/Data/Subject_1/data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R12"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,15 +457,17 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>1</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>-1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -490,7 +492,7 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>2.617000102996826</v>
+        <v>0.3589999675750732</v>
       </c>
       <c r="K2" t="inlineStr">
         <is>
@@ -499,45 +501,43 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>"אני נושמת."</t>
+          <t>"אני צריכה לעשות טלפון."</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1555.986394557823</v>
+        <v>2049.319727891156</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>recordNum11_sentence70_d9_7_h16_21_54.wav</t>
+          <t>recordNum3_sentence98_d9_7_h16_21_19.wav</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -562,7 +562,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>0.5239999294281006</v>
+        <v>0.2969999313354492</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
@@ -571,45 +571,43 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>"אני נושמת."</t>
+          <t>"אני צריכה לעשות קניות."</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1555.986394557823</v>
+        <v>2235.986394557823</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>recordNum11_sentence70_d9_7_h16_21_54.wav</t>
+          <t>recordNum5_sentence90_d9_7_h16_21_28.wav</t>
         </is>
       </c>
       <c r="O3" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>odd</t>
         </is>
       </c>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
-        <v>1</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -626,7 +624,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -634,7 +632,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>0.1459999084472656</v>
+        <v>0.3389999866485596</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
@@ -643,7 +641,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>"אני צריכה לעשות כביסה."</t>
+          <t>"יש לי פגישה בקרוב."</t>
         </is>
       </c>
       <c r="M4" t="n">
@@ -651,37 +649,35 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>recordNum13_sentence97_d9_7_h16_22_4.wav</t>
+          <t>recordNum7_sentence95_d9_7_h16_21_37.wav</t>
         </is>
       </c>
       <c r="O4" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>even</t>
-        </is>
-      </c>
-      <c r="Q4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1</v>
-      </c>
+          <t>odd</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
-        <v>1</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -698,7 +694,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -706,7 +702,7 @@
         </is>
       </c>
       <c r="J5" t="n">
-        <v>0.3919999599456787</v>
+        <v>1.072000026702881</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -715,45 +711,43 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>"אני נועלת נעליים."</t>
+          <t>"אני צריכה לבדוק את המייל."</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>3772.018140589569</v>
+        <v>1886.666666666667</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>recordNum1_sentence69_d9_7_h16_21_8.wav</t>
+          <t>recordNum16_sentence100_d9_7_h16_22_17.wav</t>
         </is>
       </c>
       <c r="O5" t="n">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>odd</t>
-        </is>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1</v>
-      </c>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
-        <v>1</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>3</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -770,7 +764,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -778,7 +772,7 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>1.386000156402588</v>
+        <v>0.4440000057220459</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -787,45 +781,43 @@
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>"אני רוצה להסתפר."</t>
+          <t>"אני מבינה עברית."</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>2230.680272108843</v>
+        <v>1708.004535147392</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>recordNum6_sentence85_d9_7_h16_21_33.wav</t>
+          <t>recordNum15_sentence74_d9_7_h16_22_13.wav</t>
         </is>
       </c>
       <c r="O6" t="n">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>even</t>
-        </is>
-      </c>
-      <c r="Q6" t="n">
-        <v>1</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1</v>
-      </c>
+          <t>odd</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
-        <v>1</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -842,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -850,54 +842,52 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>0.7079999446868896</v>
+        <v>0.2769999504089355</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>"הלוואי שהייתי מישהו אחר."</t>
+          <t>"יש לי תוכניות למחר."</t>
         </is>
       </c>
       <c r="M7" t="n">
-        <v>3252.018140589569</v>
+        <v>2393.333333333334</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>recordNum29_sentence18_d9_7_h16_23_30.wav</t>
+          <t>recordNum18_sentence80_d9_7_h16_22_27.wav</t>
         </is>
       </c>
       <c r="O7" t="n">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>even</t>
-        </is>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1</v>
-      </c>
+          <t>odd</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
-        <v>1</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -911,7 +901,7 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
@@ -922,7 +912,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>0.3869998455047607</v>
+        <v>0.255000114440918</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -931,62 +921,56 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>"יש לי תוכניות למחר."</t>
+          <t>"מה בא לי לאכול?"</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>2393.333333333334</v>
+        <v>1889.319727891156</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>recordNum18_sentence80_d9_7_h16_22_27.wav</t>
+          <t>recordNum14_sentence93_d9_7_h16_22_8.wav</t>
         </is>
       </c>
       <c r="O8" t="n">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
-        <v>1</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>not_catch</t>
-        </is>
-      </c>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -994,7 +978,7 @@
         </is>
       </c>
       <c r="J9" t="n">
-        <v>1.865999937057495</v>
+        <v>1.190999984741211</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1003,60 +987,56 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>"יש לי תוכניות למחר."</t>
+          <t>"מה בא לי לאכול?"</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>2393.333333333334</v>
+        <v>1889.319727891156</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>recordNum18_sentence80_d9_7_h16_22_27.wav</t>
+          <t>recordNum14_sentence93_d9_7_h16_22_8.wav</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>80</v>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>even</t>
-        </is>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
-        <v>1</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>catch</t>
-        </is>
-      </c>
-      <c r="F10" t="b">
-        <v>0</v>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>not_catch</t>
+        </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -1064,7 +1044,7 @@
         </is>
       </c>
       <c r="J10" t="n">
-        <v>5.930000066757202</v>
+        <v>0.3389999866485596</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1073,55 +1053,53 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>"אני נושמת."</t>
+          <t>"אני צריכה לעשות כביסה."</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>1555.986394557823</v>
+        <v>2228.004535147392</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>recordNum11_sentence70_d9_7_h16_21_54.wav</t>
+          <t>recordNum13_sentence97_d9_7_h16_22_4.wav</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>70</v>
-      </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="n">
-        <v>1</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
-        <v>1</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>normal</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>not_catch</t>
-        </is>
-      </c>
+          <t>catch</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -1132,54 +1110,48 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>0.5150001049041748</v>
+        <v>1.074000120162964</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>neg</t>
+          <t>ntr</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>"שום דבר לא מרגיש לי טוב."</t>
+          <t>"אני צריכה לעשות כביסה."</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>2222.65306122449</v>
+        <v>2228.004535147392</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>recordNum35_sentence9_d9_7_h16_24_2.wav</t>
+          <t>recordNum13_sentence97_d9_7_h16_22_4.wav</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>9</v>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>odd</t>
-        </is>
-      </c>
-      <c r="Q11" t="n">
-        <v>1</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
-        <v>1</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C12" t="n">
         <v>12</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>afact_phase</t>
+          <t>Baseline</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1204,7 +1176,7 @@
         </is>
       </c>
       <c r="J12" t="n">
-        <v>1.18500018119812</v>
+        <v>1.449000120162964</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -1213,31 +1185,657 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
+          <t>"יש לי פגישה בקרוב."</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>2228.004535147392</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>recordNum7_sentence95_d9_7_h16_21_37.wav</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>95</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>odd</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>13</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>not_catch</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>0.3619999885559082</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>"אני צריכה לעשות טלפון."</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>2049.319727891156</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>recordNum3_sentence98_d9_7_h16_21_19.wav</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>98</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>odd</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>14</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>not_catch</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="J14" t="n">
+        <v>0.2360000610351562</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>"אני צריכה לעשות קניות."</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>2235.986394557823</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>recordNum5_sentence90_d9_7_h16_21_28.wav</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>90</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>odd</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>15</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>not_catch</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>2</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
+        <v>0.3399999141693115</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>"שתיתי מספיק מים היום?"</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>2065.351473922902</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>recordNum20_sentence91_d9_7_h16_22_39.wav</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>91</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>odd</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>16</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>not_catch</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2</v>
+      </c>
+      <c r="H16" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="J16" t="n">
+        <v>0.6540000438690186</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>"שום דבר לא מרגיש לי טוב."</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>2222.65306122449</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>recordNum35_sentence9_d9_7_h16_24_2.wav</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>9</v>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>17</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>not_catch</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>2</v>
+      </c>
+      <c r="H17" t="b">
+        <v>1</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>2.098999977111816</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>"אני כל כך חלשה."</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>2052.018140589569</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>recordNum37_sentence6_d9_7_h16_24_13.wav</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>6</v>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>18</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>not_catch</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
+        <v>0.5480000972747803</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>"הלוואי שהייתי מישהו אחר."</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>3252.018140589569</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>recordNum29_sentence18_d9_7_h16_23_30.wav</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>18</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>19</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>not_catch</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>2</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>1.638000011444092</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>ntr</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
           <t>"אני נושמת."</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="M19" t="n">
         <v>1555.986394557823</v>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>recordNum11_sentence70_d9_7_h16_21_54.wav</t>
         </is>
       </c>
-      <c r="O12" t="n">
+      <c r="O19" t="n">
         <v>70</v>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>20</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>not_catch</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>0.3810000419616699</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>"אני מאוכזבת מהבחירות שלי."</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>3257.34693877551</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>recordNum36_sentence7_d9_7_h16_24_9.wav</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>7</v>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>even</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>21</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Baseline</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>normal</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>not_catch</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>r</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
+        <v>2.24399995803833</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>neg</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>"אני חסרת ערך."</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>2238.684807256236</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>recordNum31_sentence16_d9_7_h16_23_41.wav</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>16</v>
+      </c>
+      <c r="P21" t="inlineStr">
         <is>
           <t>odd</t>
         </is>
       </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
